--- a/enviar.xlsx
+++ b/enviar.xlsx
@@ -86,6 +86,17 @@
             <text:p>teste de envio python</text:p>
           </table:table-cell>
         </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>teste </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12230065" calcext:value-type="float">
+            <text:p>12230065</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>teste de arquivo</text:p>
+          </table:table-cell>
+        </table:table-row>
       </table:table>
       <table:named-expressions/>
     </office:spreadsheet>
@@ -97,11 +108,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2023-09-20T10:57:35.513000000</meta:creation-date>
-    <dc:date>2023-09-20T16:53:04.611000000</dc:date>
-    <meta:editing-duration>PT3M14S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
+    <dc:date>2023-09-20T17:35:41.468000000</dc:date>
+    <meta:editing-duration>PT3M46S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
     <meta:generator>LibreOffice/6.1.4.2$Windows_X86_64 LibreOffice_project/9d0f32d1f0b509096fd65e0d4bec26ddd1938fd3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="12" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="15" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -113,7 +124,7 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">7962</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">1806</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">2257</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -138,7 +149,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Planilha1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1879</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">983</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">140</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -325,7 +336,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2023-09-20">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="16:51:43.390000000">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="17:35:10.289000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
